--- a/file_170904/workingtime.xlsx
+++ b/file_170904/workingtime.xlsx
@@ -391,154 +391,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
+      </c>
+      <c r="C2" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1">
-        <v>300</v>
-      </c>
-      <c r="D4" s="1">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>385</v>
       </c>
       <c r="C5" s="1">
-        <v>280</v>
-      </c>
-      <c r="D5" s="1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1">
-        <v>344</v>
-      </c>
-      <c r="D6" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="C7" s="1">
-        <v>385</v>
-      </c>
-      <c r="D7" s="1">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1">
-        <v>372</v>
-      </c>
-      <c r="D8" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1">
-        <v>360</v>
-      </c>
-      <c r="D9" s="1">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>376</v>
       </c>
       <c r="C10" s="1">
-        <v>288</v>
-      </c>
-      <c r="D10" s="1">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="C11" s="1">
-        <v>321</v>
-      </c>
-      <c r="D11" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>301</v>
       </c>
       <c r="C12" s="1">
-        <v>376</v>
-      </c>
-      <c r="D12" s="1">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="C13" s="1">
-        <v>290</v>
-      </c>
-      <c r="D13" s="1">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>301</v>
-      </c>
-      <c r="D14" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>283</v>
-      </c>
-      <c r="D15" s="1">
         <v>265</v>
       </c>
     </row>
